--- a/SRFROWCA/TEST/Nigeria.xlsx
+++ b/SRFROWCA/TEST/Nigeria.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Framework" sheetId="1" r:id="rId1"/>
@@ -739,9 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:P1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -839,7 +837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>

--- a/SRFROWCA/TEST/Nigeria.xlsx
+++ b/SRFROWCA/TEST/Nigeria.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>Objective</t>
   </si>
@@ -269,6 +269,114 @@
   </si>
   <si>
     <t>ors@ocharowca.info</t>
+  </si>
+  <si>
+    <t>Abia</t>
+  </si>
+  <si>
+    <t>Adamawa</t>
+  </si>
+  <si>
+    <t>Akwa lbom</t>
+  </si>
+  <si>
+    <t>Anambra</t>
+  </si>
+  <si>
+    <t>Bauchi</t>
+  </si>
+  <si>
+    <t>Bayelsa</t>
+  </si>
+  <si>
+    <t>Benue</t>
+  </si>
+  <si>
+    <t>Borno</t>
+  </si>
+  <si>
+    <t>Cross River</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Ebonyi</t>
+  </si>
+  <si>
+    <t>Edo</t>
+  </si>
+  <si>
+    <t>Ekiti</t>
+  </si>
+  <si>
+    <t>Enugu</t>
+  </si>
+  <si>
+    <t>Federal Capital Territory</t>
+  </si>
+  <si>
+    <t>Gombe</t>
+  </si>
+  <si>
+    <t>Imo</t>
+  </si>
+  <si>
+    <t>Jigawa</t>
+  </si>
+  <si>
+    <t>Kaduna</t>
+  </si>
+  <si>
+    <t>Kano</t>
+  </si>
+  <si>
+    <t>Katsina</t>
+  </si>
+  <si>
+    <t>Kebbi</t>
+  </si>
+  <si>
+    <t>Kogi</t>
+  </si>
+  <si>
+    <t>Kwara</t>
+  </si>
+  <si>
+    <t>Lagos</t>
+  </si>
+  <si>
+    <t>Nasarawa</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Ogun</t>
+  </si>
+  <si>
+    <t>Ondo</t>
+  </si>
+  <si>
+    <t>Osun</t>
+  </si>
+  <si>
+    <t>Oyo</t>
+  </si>
+  <si>
+    <t>Plateau</t>
+  </si>
+  <si>
+    <t>Rivers</t>
+  </si>
+  <si>
+    <t>Sokoto</t>
+  </si>
+  <si>
+    <t>Taraba</t>
+  </si>
+  <si>
+    <t>Yobe</t>
   </si>
 </sst>
 </file>
@@ -737,7 +845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:AQ10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -750,9 +858,12 @@
     <col min="5" max="5" width="33.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -774,9 +885,116 @@
       <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -785,7 +1003,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -794,7 +1012,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -803,7 +1021,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -812,19 +1030,19 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
   </sheetData>
